--- a/Parts.xlsx
+++ b/Parts.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\welco\Documents\git\welcomehyunseo\JHalf-Robot-Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{258B50AF-90BA-42CF-9598-630B37A7E471}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62ED0311-4DE2-48B7-9E39-DAB32780F325}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="15330" yWindow="2190" windowWidth="14895" windowHeight="12330" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="33">
   <si>
     <t>품목</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -151,6 +151,10 @@
   </si>
   <si>
     <t>약 150g</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>필요개수</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -488,10 +492,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:G9"/>
+  <dimension ref="B1:H9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -501,7 +505,7 @@
     <col min="4" max="5" width="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -520,8 +524,11 @@
       <c r="G1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="2" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="H1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
         <v>1</v>
       </c>
@@ -540,8 +547,11 @@
       <c r="G2" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="H2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
         <v>9</v>
       </c>
@@ -560,8 +570,11 @@
       <c r="G3" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="H3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
         <v>7</v>
       </c>
@@ -569,7 +582,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
         <v>8</v>
       </c>
@@ -577,10 +590,10 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:8" x14ac:dyDescent="0.3">
       <c r="C6" s="1"/>
     </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
         <v>20</v>
       </c>
@@ -599,8 +612,11 @@
       <c r="G7" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="H7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
         <v>17</v>
       </c>
@@ -619,10 +635,16 @@
       <c r="G8" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="H8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
         <v>16</v>
+      </c>
+      <c r="H9">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/Parts.xlsx
+++ b/Parts.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\welco\Documents\git\welcomehyunseo\JHalf-Robot-Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62ED0311-4DE2-48B7-9E39-DAB32780F325}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B42D19E1-BAFE-49BF-B1CE-80628AC6F019}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15330" yWindow="2190" windowWidth="14895" windowHeight="12330" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2460" yWindow="3555" windowWidth="14895" windowHeight="12330" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="39">
   <si>
     <t>품목</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -155,6 +155,28 @@
   </si>
   <si>
     <t>필요개수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>다중서보모터 제어기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>서보모터 제어</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.adafruit.com/product/815</t>
+  </si>
+  <si>
+    <t>Adafruit PCA9685</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Adafruit</t>
+  </si>
+  <si>
+    <t>5.5g</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -492,10 +514,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:H9"/>
+  <dimension ref="B1:H10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -576,64 +598,64 @@
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
-        <v>7</v>
+        <v>33</v>
+      </c>
+      <c r="C4" t="s">
+        <v>36</v>
       </c>
       <c r="D4" t="s">
-        <v>14</v>
+        <v>34</v>
+      </c>
+      <c r="E4" t="s">
+        <v>37</v>
+      </c>
+      <c r="F4" t="s">
+        <v>35</v>
+      </c>
+      <c r="G4" t="s">
+        <v>38</v>
+      </c>
+      <c r="H4">
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B6" t="s">
         <v>8</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D6" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="C6" s="1"/>
-    </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B7" t="s">
-        <v>20</v>
-      </c>
-      <c r="C7" t="s">
-        <v>21</v>
-      </c>
-      <c r="D7" t="s">
-        <v>22</v>
-      </c>
-      <c r="E7" t="s">
-        <v>5</v>
-      </c>
-      <c r="F7" t="s">
-        <v>23</v>
-      </c>
-      <c r="G7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H7">
-        <v>1</v>
-      </c>
+      <c r="C7" s="1"/>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C8" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D8" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E8" t="s">
         <v>5</v>
       </c>
-      <c r="F8" s="2" t="s">
-        <v>25</v>
+      <c r="F8" t="s">
+        <v>23</v>
       </c>
       <c r="G8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H8">
         <v>1</v>
@@ -641,9 +663,32 @@
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" t="s">
+        <v>19</v>
+      </c>
+      <c r="E9" t="s">
+        <v>5</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G9" t="s">
+        <v>31</v>
+      </c>
+      <c r="H9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B10" t="s">
         <v>16</v>
       </c>
-      <c r="H9">
+      <c r="H10">
         <v>1</v>
       </c>
     </row>
@@ -651,7 +696,7 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="F2" r:id="rId1" xr:uid="{20DB8E07-2CF0-4742-88EF-2B11F9214D85}"/>
-    <hyperlink ref="F8" r:id="rId2" xr:uid="{C94363D0-CC09-4B99-ACE1-9B18DCCE7F6A}"/>
+    <hyperlink ref="F9" r:id="rId2" xr:uid="{C94363D0-CC09-4B99-ACE1-9B18DCCE7F6A}"/>
     <hyperlink ref="F3" r:id="rId3" xr:uid="{94A17A37-4560-4750-8076-534A3B874D61}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Parts.xlsx
+++ b/Parts.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\welco\Documents\git\welcomehyunseo\JHalf-Robot-Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B42D19E1-BAFE-49BF-B1CE-80628AC6F019}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82098D4A-F332-455F-B276-5197B83A186F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2460" yWindow="3555" windowWidth="14895" windowHeight="12330" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="49">
   <si>
     <t>품목</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -111,10 +111,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>라즈베리파이 전용</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>모션인식</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -177,6 +173,50 @@
   </si>
   <si>
     <t>5.5g</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지지대볼트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">M2.5 * </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지지대볼트 2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>서보 기판 연결</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>배터리 기판 연결</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>icBanq</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30g</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>다중서보모터 제어</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>M2.5 * 11.05</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>와셔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지지대볼트 전용</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -514,16 +554,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:H10"/>
+  <dimension ref="B1:H12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="1.625" customWidth="1"/>
     <col min="2" max="2" width="14.875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.625" customWidth="1"/>
     <col min="4" max="5" width="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -544,10 +585,10 @@
         <v>6</v>
       </c>
       <c r="G1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2" spans="2:8" x14ac:dyDescent="0.3">
@@ -564,10 +605,10 @@
         <v>5</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H2">
         <v>1</v>
@@ -587,10 +628,10 @@
         <v>5</v>
       </c>
       <c r="F3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G3" t="s">
         <v>28</v>
-      </c>
-      <c r="G3" t="s">
-        <v>29</v>
       </c>
       <c r="H3">
         <v>10</v>
@@ -598,22 +639,22 @@
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D4" t="s">
         <v>33</v>
       </c>
-      <c r="C4" t="s">
+      <c r="E4" t="s">
         <v>36</v>
       </c>
-      <c r="D4" t="s">
+      <c r="F4" t="s">
         <v>34</v>
       </c>
-      <c r="E4" t="s">
+      <c r="G4" t="s">
         <v>37</v>
-      </c>
-      <c r="F4" t="s">
-        <v>35</v>
-      </c>
-      <c r="G4" t="s">
-        <v>38</v>
       </c>
       <c r="H4">
         <v>1</v>
@@ -636,59 +677,98 @@
       </c>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="C7" s="1"/>
+      <c r="B7" t="s">
+        <v>47</v>
+      </c>
+      <c r="D7" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
-        <v>20</v>
-      </c>
-      <c r="C8" t="s">
-        <v>21</v>
+        <v>38</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>46</v>
       </c>
       <c r="D8" t="s">
-        <v>22</v>
-      </c>
-      <c r="E8" t="s">
-        <v>5</v>
-      </c>
-      <c r="F8" t="s">
-        <v>23</v>
-      </c>
-      <c r="G8" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="H8">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
-        <v>17</v>
-      </c>
-      <c r="C9" t="s">
-        <v>18</v>
+        <v>40</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>39</v>
       </c>
       <c r="D9" t="s">
-        <v>19</v>
-      </c>
-      <c r="E9" t="s">
-        <v>5</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="G9" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="H9">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10" t="s">
+        <v>5</v>
+      </c>
+      <c r="F10" t="s">
+        <v>22</v>
+      </c>
+      <c r="G10" t="s">
+        <v>29</v>
+      </c>
+      <c r="H10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B11" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" t="s">
+        <v>18</v>
+      </c>
+      <c r="D11" t="s">
+        <v>19</v>
+      </c>
+      <c r="E11" t="s">
+        <v>5</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G11" t="s">
+        <v>30</v>
+      </c>
+      <c r="H11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B12" t="s">
         <v>16</v>
       </c>
-      <c r="H10">
+      <c r="D12" t="s">
+        <v>45</v>
+      </c>
+      <c r="E12" t="s">
+        <v>43</v>
+      </c>
+      <c r="G12" t="s">
+        <v>44</v>
+      </c>
+      <c r="H12">
         <v>1</v>
       </c>
     </row>
@@ -696,7 +776,7 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="F2" r:id="rId1" xr:uid="{20DB8E07-2CF0-4742-88EF-2B11F9214D85}"/>
-    <hyperlink ref="F9" r:id="rId2" xr:uid="{C94363D0-CC09-4B99-ACE1-9B18DCCE7F6A}"/>
+    <hyperlink ref="F11" r:id="rId2" xr:uid="{C94363D0-CC09-4B99-ACE1-9B18DCCE7F6A}"/>
     <hyperlink ref="F3" r:id="rId3" xr:uid="{94A17A37-4560-4750-8076-534A3B874D61}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Parts.xlsx
+++ b/Parts.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\welco\Documents\git\welcomehyunseo\JHalf-Robot-Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82098D4A-F332-455F-B276-5197B83A186F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F5BFFA7-60BC-45C6-9F31-8509EB7D7463}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2460" yWindow="3555" windowWidth="14895" windowHeight="12330" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4590" yWindow="2835" windowWidth="14895" windowHeight="12330" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="53">
   <si>
     <t>품목</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -162,62 +162,77 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>Adafruit PCA9685</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.5g</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지지대볼트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">M2.5 * </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지지대볼트 2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>서보 기판 연결</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>배터리 기판 연결</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>icBanq</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30g</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>다중서보모터 제어</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>M2.5 * 11.05</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>와셔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지지대볼트 전용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공식처</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.towerpro.com.tw/product/mg945/</t>
+  </si>
+  <si>
+    <t>데이터시트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.devicemart.co.kr/goods/view?no=1272119</t>
+  </si>
+  <si>
     <t>https://www.adafruit.com/product/815</t>
-  </si>
-  <si>
-    <t>Adafruit PCA9685</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Adafruit</t>
-  </si>
-  <si>
-    <t>5.5g</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>지지대볼트</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">M2.5 * </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>지지대볼트 2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>서보 기판 연결</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>배터리 기판 연결</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>icBanq</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>30g</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>다중서보모터 제어</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>M2.5 * 11.05</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>와셔</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>지지대볼트 전용</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.raspberrypi.org/products/raspberry-pi-4-model-b/</t>
   </si>
 </sst>
 </file>
@@ -554,10 +569,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:H12"/>
+  <dimension ref="B1:J12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -568,7 +583,7 @@
     <col min="4" max="5" width="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -590,8 +605,14 @@
       <c r="H1" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="2" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I1" t="s">
+        <v>47</v>
+      </c>
+      <c r="J1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="2" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
         <v>1</v>
       </c>
@@ -613,8 +634,11 @@
       <c r="H2">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="3" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
         <v>9</v>
       </c>
@@ -636,31 +660,37 @@
       <c r="H3">
         <v>10</v>
       </c>
-    </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="4" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
         <v>32</v>
       </c>
       <c r="C4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D4" t="s">
         <v>33</v>
       </c>
       <c r="E4" t="s">
-        <v>36</v>
+        <v>5</v>
       </c>
       <c r="F4" t="s">
-        <v>34</v>
+        <v>50</v>
       </c>
       <c r="G4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H4">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="I4" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="5" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
         <v>7</v>
       </c>
@@ -668,7 +698,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
         <v>8</v>
       </c>
@@ -676,43 +706,43 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D7" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.3">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="8" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D8" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H8">
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
+        <v>38</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D9" t="s">
         <v>40</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="D9" t="s">
-        <v>42</v>
       </c>
       <c r="H9">
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
         <v>20</v>
       </c>
@@ -732,7 +762,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
         <v>17</v>
       </c>
@@ -755,18 +785,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
         <v>16</v>
       </c>
       <c r="D12" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E12" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G12" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H12">
         <v>1</v>
@@ -778,8 +808,9 @@
     <hyperlink ref="F2" r:id="rId1" xr:uid="{20DB8E07-2CF0-4742-88EF-2B11F9214D85}"/>
     <hyperlink ref="F11" r:id="rId2" xr:uid="{C94363D0-CC09-4B99-ACE1-9B18DCCE7F6A}"/>
     <hyperlink ref="F3" r:id="rId3" xr:uid="{94A17A37-4560-4750-8076-534A3B874D61}"/>
+    <hyperlink ref="I4" r:id="rId4" xr:uid="{B5255DF4-3B0D-4CE1-AD90-E71B0B732476}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId5"/>
 </worksheet>
 </file>
--- a/Parts.xlsx
+++ b/Parts.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\welco\Documents\git\welcomehyunseo\JHalf-Robot-Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F5BFFA7-60BC-45C6-9F31-8509EB7D7463}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91B8D496-1ADB-46B0-81BA-EAB54698811D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4590" yWindow="2835" windowWidth="14895" windowHeight="12330" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1800" yWindow="2505" windowWidth="14895" windowHeight="12330" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="66">
   <si>
     <t>품목</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -233,13 +233,63 @@
   </si>
   <si>
     <t>https://www.raspberrypi.org/products/raspberry-pi-4-model-b/</t>
+  </si>
+  <si>
+    <t>서보모터 용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>미니어처베어링</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ntn_ballbearing_1232667.pdf (devicemart.co.kr)</t>
+  </si>
+  <si>
+    <t>https://www.devicemart.co.kr/goods/view?no=1241336</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>내경(mm):5, 외경(mm):8, 폭(mm):2.5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>충전확장커넥트 용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.devicemart.co.kr/goods/view?no=10824740</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5핀 usb</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NA279</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5pin 연장 케이블</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>꺽임형</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>충전확장커넥트용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.devicemart.co.kr/goods/view?no=1378245</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -260,6 +310,14 @@
       <color theme="10"/>
       <name val="맑은 고딕"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF32353C"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -284,10 +342,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -569,10 +628,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:J12"/>
+  <dimension ref="B1:J15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+    <sheetView tabSelected="1" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -802,6 +861,69 @@
         <v>1</v>
       </c>
     </row>
+    <row r="13" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B13" t="s">
+        <v>54</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="D13" t="s">
+        <v>53</v>
+      </c>
+      <c r="E13" t="s">
+        <v>5</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="H13">
+        <v>20</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="14" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B14" t="s">
+        <v>60</v>
+      </c>
+      <c r="C14" t="s">
+        <v>61</v>
+      </c>
+      <c r="D14" t="s">
+        <v>58</v>
+      </c>
+      <c r="E14" t="s">
+        <v>5</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="H14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B15" t="s">
+        <v>62</v>
+      </c>
+      <c r="C15" t="s">
+        <v>63</v>
+      </c>
+      <c r="D15" t="s">
+        <v>64</v>
+      </c>
+      <c r="E15" t="s">
+        <v>5</v>
+      </c>
+      <c r="F15" t="s">
+        <v>65</v>
+      </c>
+      <c r="H15">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
@@ -809,8 +931,11 @@
     <hyperlink ref="F11" r:id="rId2" xr:uid="{C94363D0-CC09-4B99-ACE1-9B18DCCE7F6A}"/>
     <hyperlink ref="F3" r:id="rId3" xr:uid="{94A17A37-4560-4750-8076-534A3B874D61}"/>
     <hyperlink ref="I4" r:id="rId4" xr:uid="{B5255DF4-3B0D-4CE1-AD90-E71B0B732476}"/>
+    <hyperlink ref="J13" r:id="rId5" display="https://www.devicemart.co.kr/data/collect_img/kind_0/mart7/upload/fd_html_img/1232667/ntn_ballbearing_1232667.pdf" xr:uid="{C3566141-B9F1-4A36-954B-094C831FF1D7}"/>
+    <hyperlink ref="F13" r:id="rId6" xr:uid="{E5F249B6-A6A0-4A51-B76C-9250061B3FED}"/>
+    <hyperlink ref="F14" r:id="rId7" xr:uid="{D2EFF5E6-0F9F-4516-98A9-DF2D50642CB4}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId5"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId8"/>
 </worksheet>
 </file>